--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="25440" windowHeight="10290"/>
   </bookViews>
@@ -154,9 +159,6 @@
     <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator type and your indicator; (2) Select your geography by choosing countries and/or regions; (3) Choose your preferred sex and age categories; (4) Choose your scenarios and your years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
   </si>
   <si>
-    <t>Currently data is included from 1970 until 2100. The base year for the projections is 2010.</t>
-  </si>
-  <si>
     <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 100 as well as the age group 100+ (the maximum age group considered).</t>
   </si>
   <si>
@@ -218,13 +220,81 @@
   </si>
   <si>
     <t>Israel is characterized by series of substantial waves of immigration with different education background that are modifying the education landscape of the country hence rendering impossible the reconstruction of educational attainment data along cohort lines. Therefore we do not provide data on educational attainment for Israel for the period 1970-2005. More details in &lt;a href='http://www.iiasa.ac.at/publication/more_IR-15-008.php'&gt;Speringer et al. (2015)&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <r>
+      <t>Currently data is included from 1970 until 2100. The base year for the projections is 2010. Stock estimates (e.g. population size), refer to 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of July of the year in question. Period estimates (e.g. total fertility rates), refer to the period between the 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of July of the starting year and 30</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of June of the ending year of the period in question.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +426,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -756,14 +834,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -801,9 +882,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -838,7 +919,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,7 +954,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1053,7 +1134,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,10 +1248,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,10 +1292,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1247,7 +1328,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,10 +1358,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1291,7 +1372,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,10 +1380,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,10 +1391,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,10 +1402,10 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,10 +1413,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,10 +1424,10 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,10 +1490,10 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -5,21 +5,80 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agoujon\Dropbox\data explorer 2.0\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="25440" windowHeight="10290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="faq" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Goujon, Anne</author>
+    <author>Reiter, Claudia</author>
+  </authors>
+  <commentList>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Goujon, Anne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Please Guy, provide the updated reference for the 1960-2015 information on flows</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Reiter, Claudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+not sure what's the correct answer here. Samir, please check</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>category</t>
   </si>
@@ -78,9 +137,6 @@
     <t>What software do I need to &lt;strong&gt;display a PDF&lt;/strong&gt; file?</t>
   </si>
   <si>
-    <t>WIC 2012 education categories are used in the projections. These are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 1997) categories&lt;/a&gt;. For details on WIC 2012 categories and how they can be converted to ISCED 1997 categories, see &lt;a href='http://webarchive.iiasa.ac.at/Admin/PUB/Documents/IR-12-016.pdf'&gt;Bauer et al., 2012, IIASA IR 12-016&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>No registration is required for accessing, selecting, and downloading data.</t>
   </si>
   <si>
@@ -90,9 +146,6 @@
     <t>No, unfortunately the WIC Data Explorer is currently only offered in English. However, you can use translation tools like &lt;a href='http://translate.google.com/'&gt;Google Translator&lt;/a&gt; to translate the website into your preferred language.</t>
   </si>
   <si>
-    <t>195 countries which had more than 100,000 inhabitants in 2010 are included in WIC Data Explorer. However, 24 (see below) did not provide any data for the projections. Hence, regional averages were used instead and we recommend careful use of their data. More details can be found in &lt;a href='http://webarchive.iiasa.ac.at/Admin/PUB/Documents/IR-13-018.pdf'&gt;K.C. et al., 2013, IIASA IR 13-018&lt;/a&gt;. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methods/m49/m49.htm'&gt;here&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>To view a CSV file you need &lt;a href='http://office.microsoft.com/en-us/buy/'&gt;Microsoft Excel&lt;/a&gt;, &lt;a href='https://www.openoffice.org/download/index.html'&gt;Apache OpenOffice Calc&lt;/a&gt; (free), &lt;a href='http://www.libreoffice.org/download/libreoffice-fresh/'&gt;Libre Office Calc&lt;/a&gt; (free) or another spreadsheet application. If you open the file and the data does not appear in columns, your software does not recognize the comma as a separator. Try the following steps for a solution (Microsoft Excel): Select the first column &amp;rarr; Go to the data tab &amp;rarr; chose Text in Columns &amp;rarr; Follow the steps and select comma (,) as separator and quotation marks (") as a text qualifier. For more information available at Microsoft's support sites click &lt;a href='http://office.microsoft.com/en-us/excel-help/import-or-export-text-txt-or-csv-files-HP010099725.aspx'&gt;here&lt;/a&gt;.</t>
   </si>
   <si>
@@ -114,33 +167,18 @@
     <t>Which and how many &lt;strong&gt;scenarios&lt;/strong&gt; are included in the WIC Data Explorer?</t>
   </si>
   <si>
-    <t>The data provided comes from population projections carried out by researchers at WIC. The research is based on the &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2010 revision&lt;/a&gt; by the UN Population Division where information on total population and sex was obtained.</t>
-  </si>
-  <si>
     <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://wu.ac.at/'&gt;Vienna University of Economics and Business (WU)&lt;/a&gt;. Its aim is to be a world leader in the advancement of demographic methods and their application to the analysis of human capital and population dynamics by combining the three partner organizations' strengths in the fields of demography, human capital formation, and analysis of the returns to education.</t>
   </si>
   <si>
-    <t>The WIC Data Explorer currently includes data on the following topics for all countries with more than 100,000 inhabitants in 2010: total population and population growth, population ageing, education fertility, mortality, and migration. Some indicators are not available in every scenario, by education, and/or at all geographical scales.</t>
-  </si>
-  <si>
     <t>Yes, webmasters can place links to the WIC Data Explorer without  special permission. Nevertheless, we would appreciate &lt;a href='mailto:data@wittgensteincentre.org'&gt;notification&lt;/a&gt; if you do so.</t>
   </si>
   <si>
-    <t>Due to methodological constraints, only countries with a population of more than 100,000 people in 2010 are currently considered in the database.</t>
-  </si>
-  <si>
     <t>In what &lt;strong&gt;formats&lt;/strong&gt; is the data available for &lt;strong&gt;download&lt;/strong&gt;?</t>
   </si>
   <si>
     <t>No, currently there is no function to download entire datasets or the entire database at once. You must make a selection first to get a download option. Nevertheless, if you require a large number of indicators and countries you can send us a &lt;a href='mailto:data@wittgensteincentre.org'&gt;message&lt;/a&gt;.</t>
   </si>
   <si>
-    <t>For which countries/areas/regions are &lt;strong&gt;PDFs with additional information&lt;/strong&gt; available?</t>
-  </si>
-  <si>
-    <t>Detailed PDF reports are available for 171 countries (base year data available), six continents (Africa, Asia, Europe, Latin America and the Caribbean, Northern America, and Oceania), and the world.</t>
-  </si>
-  <si>
     <t>To view a PDF file you will need a PDF viewer like Adobe Reader. To download Adobe Reader for free, click &lt;a href='http://get.adobe.com/de/reader/'&gt;here&lt;/a&gt;.</t>
   </si>
   <si>
@@ -150,24 +188,9 @@
     <t>I have a &lt;strong&gt;question&lt;/strong&gt; that is &lt;strong&gt;not in the FAQs&lt;/strong&gt;, whom should I contact?</t>
   </si>
   <si>
-    <t>The projections until 2100 are based on collected census and survey data for the base year (around 2010). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see &lt;a href='http://www.sciencedirect.com/science/article/pii/S0959378014001095'&gt; K.C. and Lutz, 2014&lt;/a&gt; and the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications but must always be attributed as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 1.2 2015'</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator type and your indicator; (2) Select your geography by choosing countries and/or regions; (3) Choose your preferred sex and age categories; (4) Choose your scenarios and your years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
   </si>
   <si>
-    <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 100 as well as the age group 100+ (the maximum age group considered).</t>
-  </si>
-  <si>
-    <t>Seven different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see &lt;a href='http://www.sciencedirect.com/science/article/pii/S0959378014001095'&gt; K.C. and Lutz, 2014&lt;/a&gt; and the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t>Why are some &lt;strong&gt;some indicators&lt;/strong&gt; only available by the &lt;strong&gt;Medium (SSP2) scenario&lt;/strong&gt;?</t>
-  </si>
-  <si>
     <t>Why do I get the following message in the table when I submit my selection: ' &lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
   </si>
   <si>
@@ -189,9 +212,6 @@
     <t>Blank cells occur when the indicator you selected is not available for a region, but only on the country level.</t>
   </si>
   <si>
-    <t>This is due to methodological constraints. The following indicators are only available by Medium (SSP2) scenario: Population Median Age, Prospective Median Age, Age when remaining Life Expectancy is below 15 years, Prospective Old-age Dependency Ratio, Number of Immigrants, and Number of Emigrants.</t>
-  </si>
-  <si>
     <t>To view a PNG file you will need a viewer like IrfanView. To download IrfanView for free, click &lt;a href='http://www.irfanview.com/'&gt;here&lt;/a&gt;.</t>
   </si>
   <si>
@@ -204,26 +224,20 @@
     <t>Is there also information on  &lt;strong&gt;immigration and emigration&lt;/strong&gt;n available?</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on WIC research presented at &lt;a href='http://www.global-migration.info/'&gt;http://www.global-migration.info/&lt;/a&gt;, from where you can obtain in- and outflow data from 1990 to 2010. </t>
-  </si>
-  <si>
     <t>Why does the &lt;strong&gt;global net-migration&lt;/strong&gt; does not sum up to zero?</t>
   </si>
   <si>
-    <t>The global net-migration numbers sum up to zero at the level of the 171 countries with data on education. The 24 countries with limited data on education were added later and hence the global net-migration does not sum up to zero for all countries in WIC Data Explorer.</t>
-  </si>
-  <si>
-    <t>For 24 countries it was not possible to obtain data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Afghanistan, Angola, Barbados, Botswana, Brunei Darussalam, Channel Islands, Democratic People's Republic of Korea, Djibouti, Eritrea, Fiji, Grenada, Guam, Libya, Mauritania, Mayotte, Micronesia, Oman, Papua New Guinea, Solomon Islands, Sri Lanka, Togo, Uzbekistan, Virgin Islands, and Yemen.</t>
-  </si>
-  <si>
-    <t>Why cannot I find data on education for &lt;strong&gt;Israel&lt;/strong&gt; for the period 1970-2005?</t>
-  </si>
-  <si>
-    <t>Israel is characterized by series of substantial waves of immigration with different education background that are modifying the education landscape of the country hence rendering impossible the reconstruction of educational attainment data along cohort lines. Therefore we do not provide data on educational attainment for Israel for the period 1970-2005. More details in &lt;a href='http://www.iiasa.ac.at/publication/more_IR-15-008.php'&gt;Speringer et al. (2015)&lt;/a&gt;.</t>
+    <t>Why are &lt;strong&gt;some indicators&lt;/strong&gt; only available by the &lt;strong&gt;Medium (SSP2) scenario&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>The data provided comes from population projections carried out by researchers at WIC. The research is based on the &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2017 revision&lt;/a&gt; by the UN Population Division where information on total population and sex was obtained.</t>
+  </si>
+  <si>
+    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications but must always be attributed as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 2.0 2018'</t>
   </si>
   <si>
     <r>
-      <t>Currently data is included from 1970 until 2100. The base year for the projections is 2010. Stock estimates (e.g. population size), refer to 1</t>
+      <t>Currently data is included from 1950 until 2100. The base year for the projections is 2015. Stock estimates (e.g. population size) refer to 1</t>
     </r>
     <r>
       <rPr>
@@ -244,7 +258,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of July of the year in question. Period estimates (e.g. total fertility rates), refer to the period between the 1</t>
+      <t xml:space="preserve"> of July of the year in question. Period estimates (e.g. total fertility rates) refer to the period between the 1</t>
     </r>
     <r>
       <rPr>
@@ -289,12 +303,69 @@
       <t xml:space="preserve"> of June of the ending year of the period in question.</t>
     </r>
   </si>
+  <si>
+    <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
+  </si>
+  <si>
+    <t>The WIC Data Explorer currently includes data on the following topics for 201 countries of the world: total population and population growth, population ageing, education fertility, mortality, and migration. Some indicators are not available in every scenario, by education, and/or at all geographical scales.</t>
+  </si>
+  <si>
+    <t>For 16 countries it was not possible to obtain data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF reports are available for all 201 countries, with tables of detailed results of projections for each of the EU-28 countries, and tables with chosen results of projections for all of the other countries in the world. </t>
+  </si>
+  <si>
+    <t>For which countries are &lt;strong&gt;PDFs with additional information&lt;/strong&gt; available?</t>
+  </si>
+  <si>
+    <t>The projections until 2100 are based on collected census and survey data for the base year (around 2015). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>201 countries are included in the WIC Data Explorer. However, 16 (Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara) did not provide any data for the projections. Hence, regional averages were used instead and we recommend careful use of their data. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories and how they can be converted to ISCED 2011 categories, see &lt;a href='http://pure.iiasa.ac.at/id/eprint/10259/'&gt;Bauer et al., 2012, IIASA IR 12-016&lt;/a&gt; or the Education Definitions tab.</t>
+  </si>
+  <si>
+    <t>Five different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>This is due to methodological constraints. The following indicators are only available by Medium (SSP2) scenario: Prospective Median Age, Age when remaining Life Expectancy is below 15 years, and Proportion of Population with a Remaining Life Expectancy below 15 Years.</t>
+  </si>
+  <si>
+    <t>The global net-migration numbers sum up to zero at the level of the 185 countries with data on education. The 16 countries with limited data on education were added later and hence the global net-migration does not sum up to zero for all countries in WIC Data Explorer.</t>
+  </si>
+  <si>
+    <t>Why are SSP 4 and 5 not available anymore in Version 2.0?</t>
+  </si>
+  <si>
+    <t>The interpretation of narratives for SSP4 and SSP5 did not lead to meaningful demographic and human capital scenarios and we decided therefore not to present them in version 2.0.</t>
+  </si>
+  <si>
+    <t>What is new compared to Version 1.2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of countries with data on educational attainement has been increased to 185 (from 171 in Version 1.2). We have updated the education data with the most recent valid datasets. Whenever possible, we have also disaggregated the post-secondary education category in more categories following ISCED 11. Furthermore, the reconstruction goes back to 1950 (instead of 1970 in Version 1.2). </t>
+  </si>
+  <si>
+    <t>Why is the reconstructed data from 1970 to 2010 different from Version 1.2?</t>
+  </si>
+  <si>
+    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. See Speringer et al. 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on WIC research presented at &lt;a href='http://www.global-migration.info/'&gt;http://www.global-migration.info/&lt;/a&gt;, from where you can obtain in- and outflow data from 1990 to 2015. </t>
+  </si>
+  <si>
+    <t>Due to methodological constraints, only countries with a population of more than 100,000 people in 2015 are currently considered in the database (the Seychelles is the only exception).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,8 +509,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,6 +708,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -780,53 +883,56 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,7 +948,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1127,17 +1233,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="210.5703125" bestFit="1" customWidth="1"/>
@@ -1163,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,10 +1288,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1215,10 +1321,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,10 +1332,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,10 +1343,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,10 +1354,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,10 +1365,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,43 +1387,43 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1336,10 +1442,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,10 +1453,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,10 +1464,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,10 +1475,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,10 +1486,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,10 +1497,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,43 +1508,43 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
+      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1446,10 +1552,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1457,10 +1563,10 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,10 +1574,10 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1479,10 +1585,10 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1490,14 +1596,43 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="21" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agoujon\Dropbox\data explorer 2.0\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,11 +21,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Goujon, Anne</author>
     <author>Reiter, Claudia</author>
   </authors>
   <commentList>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -33,31 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Goujon, Anne:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Please Guy, provide the updated reference for the 1960-2015 information on flows</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C23" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Reiter, Claudia:</t>
         </r>
@@ -66,10 +41,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-not sure what's the correct answer here. Samir, please check</t>
+need to ask Samir what the threshold is</t>
         </r>
       </text>
     </comment>
@@ -78,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>category</t>
   </si>
@@ -188,9 +163,6 @@
     <t>I have a &lt;strong&gt;question&lt;/strong&gt; that is &lt;strong&gt;not in the FAQs&lt;/strong&gt;, whom should I contact?</t>
   </si>
   <si>
-    <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator type and your indicator; (2) Select your geography by choosing countries and/or regions; (3) Choose your preferred sex and age categories; (4) Choose your scenarios and your years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
-  </si>
-  <si>
     <t>Why do I get the following message in the table when I submit my selection: ' &lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
   </si>
   <si>
@@ -203,9 +175,6 @@
     <t>How do I &lt;strong&gt;download data&lt;/strong&gt;?</t>
   </si>
   <si>
-    <t>In the bottum right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
-  </si>
-  <si>
     <t>Why are there sometimes &lt;strong&gt;blank cells&lt;/strong&gt; for regions?</t>
   </si>
   <si>
@@ -224,20 +193,65 @@
     <t>Is there also information on  &lt;strong&gt;immigration and emigration&lt;/strong&gt;n available?</t>
   </si>
   <si>
-    <t>Why does the &lt;strong&gt;global net-migration&lt;/strong&gt; does not sum up to zero?</t>
-  </si>
-  <si>
     <t>Why are &lt;strong&gt;some indicators&lt;/strong&gt; only available by the &lt;strong&gt;Medium (SSP2) scenario&lt;/strong&gt;?</t>
   </si>
   <si>
-    <t>The data provided comes from population projections carried out by researchers at WIC. The research is based on the &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2017 revision&lt;/a&gt; by the UN Population Division where information on total population and sex was obtained.</t>
-  </si>
-  <si>
-    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications but must always be attributed as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 2.0 2018'</t>
+    <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
+  </si>
+  <si>
+    <t>For 16 countries it was not possible to obtain data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF reports are available for all 201 countries, with tables of detailed results of projections for each of the EU-28 countries, and tables with chosen results of projections for all of the other countries in the world. </t>
+  </si>
+  <si>
+    <t>For which countries are &lt;strong&gt;PDFs with additional information&lt;/strong&gt; available?</t>
+  </si>
+  <si>
+    <t>Five different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>This is due to methodological constraints. The following indicators are only available by Medium (SSP2) scenario: Prospective Median Age, Age when remaining Life Expectancy is below 15 years, and Proportion of Population with a Remaining Life Expectancy below 15 Years.</t>
+  </si>
+  <si>
+    <t>Why are SSP 4 and 5 not available anymore in Version 2.0?</t>
+  </si>
+  <si>
+    <t>The interpretation of narratives for SSP4 and SSP5 did not lead to meaningful demographic and human capital scenarios and we decided therefore not to present them in version 2.0.</t>
+  </si>
+  <si>
+    <t>What is new compared to Version 1.2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of countries with data on educational attainement has been increased to 185 (from 171 in Version 1.2). We have updated the education data with the most recent valid datasets. Whenever possible, we have also disaggregated the post-secondary education category in more categories following ISCED 11. Furthermore, the reconstruction goes back to 1950 (instead of 1970 in Version 1.2). </t>
+  </si>
+  <si>
+    <t>Why is the reconstructed data from 1970 to 2010 different from Version 1.2?</t>
+  </si>
+  <si>
+    <t>Due to methodological constraints, only countries with a population of more than 100,000 people in 2015 are currently considered in the database (the Seychelles is the only exception).</t>
+  </si>
+  <si>
+    <t>The WIC Data Explorer currently includes data on the following topics for 201 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2017 revision&lt;/a&gt; by the UN Population Division (2015 base-year population by age and sex and estimates for 1950-2015, and information about fertility, mortality and migration and related indicators. The data are explained in two publications: </t>
+  </si>
+  <si>
+    <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2015). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be  referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 2.0 2018'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator; (2) Select the geography by choosing countries and/or regions; (3) Choose the preferred sex and age categories; (4) Choose the  scenarios and years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
+  </si>
+  <si>
+    <t>201 countries are included in the WIC Data Explorer. However, for 16 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. For those countries, we do not reconstruct back to 1950. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
   </si>
   <si>
     <r>
-      <t>Currently data is included from 1950 until 2100. The base year for the projections is 2015. Stock estimates (e.g. population size) refer to 1</t>
+      <t>Currently data are included from 1950 until 2100. The base year for the projections is 2015. Stock estimates (e.g. population size) refer to 1</t>
     </r>
     <r>
       <rPr>
@@ -304,61 +318,46 @@
     </r>
   </si>
   <si>
-    <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
-  </si>
-  <si>
-    <t>The WIC Data Explorer currently includes data on the following topics for 201 countries of the world: total population and population growth, population ageing, education fertility, mortality, and migration. Some indicators are not available in every scenario, by education, and/or at all geographical scales.</t>
-  </si>
-  <si>
-    <t>For 16 countries it was not possible to obtain data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDF reports are available for all 201 countries, with tables of detailed results of projections for each of the EU-28 countries, and tables with chosen results of projections for all of the other countries in the world. </t>
-  </si>
-  <si>
-    <t>For which countries are &lt;strong&gt;PDFs with additional information&lt;/strong&gt; available?</t>
-  </si>
-  <si>
-    <t>The projections until 2100 are based on collected census and survey data for the base year (around 2015). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t>201 countries are included in the WIC Data Explorer. However, 16 (Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara) did not provide any data for the projections. Hence, regional averages were used instead and we recommend careful use of their data. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories and how they can be converted to ISCED 2011 categories, see &lt;a href='http://pure.iiasa.ac.at/id/eprint/10259/'&gt;Bauer et al., 2012, IIASA IR 12-016&lt;/a&gt; or the Education Definitions tab.</t>
-  </si>
-  <si>
-    <t>Five different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t>This is due to methodological constraints. The following indicators are only available by Medium (SSP2) scenario: Prospective Median Age, Age when remaining Life Expectancy is below 15 years, and Proportion of Population with a Remaining Life Expectancy below 15 Years.</t>
-  </si>
-  <si>
-    <t>The global net-migration numbers sum up to zero at the level of the 185 countries with data on education. The 16 countries with limited data on education were added later and hence the global net-migration does not sum up to zero for all countries in WIC Data Explorer.</t>
-  </si>
-  <si>
-    <t>Why are SSP 4 and 5 not available anymore in Version 2.0?</t>
-  </si>
-  <si>
-    <t>The interpretation of narratives for SSP4 and SSP5 did not lead to meaningful demographic and human capital scenarios and we decided therefore not to present them in version 2.0.</t>
-  </si>
-  <si>
-    <t>What is new compared to Version 1.2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of countries with data on educational attainement has been increased to 185 (from 171 in Version 1.2). We have updated the education data with the most recent valid datasets. Whenever possible, we have also disaggregated the post-secondary education category in more categories following ISCED 11. Furthermore, the reconstruction goes back to 1950 (instead of 1970 in Version 1.2). </t>
-  </si>
-  <si>
-    <t>Why is the reconstructed data from 1970 to 2010 different from Version 1.2?</t>
-  </si>
-  <si>
-    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. See Speringer et al. 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on WIC research presented at &lt;a href='http://www.global-migration.info/'&gt;http://www.global-migration.info/&lt;/a&gt;, from where you can obtain in- and outflow data from 1990 to 2015. </t>
-  </si>
-  <si>
-    <t>Due to methodological constraints, only countries with a population of more than 100,000 people in 2015 are currently considered in the database (the Seychelles is the only exception).</t>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/PDF/Publications/Working_Papers/WP2018_14.pdf'&gt;Speringer et al., 2018, VID WP 14/2018&lt;/a&gt; or the Education Definitions tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on &lt;a href='https://guyabel.com/publication/global-migration-estimates-by-gender/'&gt;Abel, 2017&lt;/a&gt;, from where you can obtain in- and outflow data from 1960 to 2015. </t>
+  </si>
+  <si>
+    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/PDF/Publications/Working_Papers/WP2018_14.pdf'&gt;Speringer et al. 2018&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Why is the data in the Data Explorer slightly different from the data published in &lt;a href="https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries"&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt;?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is due to later data adjustments in the course of validating the Data Explorer 2.0, resulting in minor changes to the projection results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why are &lt;strong&gt;Age-specific Fertility Rates by Education&lt;/strong&gt; and &lt;strong&gt;Total Fertility Rates by Education&lt;/strong&gt; in many cases equal for different education categories? </t>
+  </si>
+  <si>
+    <t>Due to methodological reasons, education categories are aggregated whenever their share in total population is below a certain threshold.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While the reconstruction of population by levels of educational attainment from 1950 to 2015 covers 185 countries, population projections include 201 countries. Hence, proxy data for the missing countries have to be used to calculate regional aggregates, resulting in minor breaks in time series. </t>
+  </si>
+  <si>
+    <t>This is due to methodological constraints. As a result of different weights for different countries, regional aggregates of education-specific total fertility rates tend to show unsteady results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to methodological reasons slightly different calculations are used for the historical reconstruction (based on 6 education categories) and the projections (based on 8 education categories) of this indicator. </t>
+  </si>
+  <si>
+    <t>In the bottom right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is there a break in time series between 2010 and 2015 for &lt;strong&gt;Mean Years of Schooling&lt;/strong&gt; for some countries? </t>
+  </si>
+  <si>
+    <t>Why is there a &lt;strong&gt;break in time series&lt;/strong&gt; between 2010 and 2015 for many &lt;strong&gt;regions&lt;/strong&gt; and indicators?</t>
+  </si>
+  <si>
+    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;a&gt;Total Fertility Rate by Education”&lt;/a&gt; very volatile, while country results look smooth?</t>
   </si>
 </sst>
 </file>
@@ -517,20 +516,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,18 +707,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -883,12 +870,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1239,25 +1229,25 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="210.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.5703125" customWidth="1"/>
+    <col min="2" max="2" width="163.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="255.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1265,10 +1255,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1276,10 +1266,10 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1287,54 +1277,54 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>58</v>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>51</v>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1342,10 +1332,10 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1353,21 +1343,21 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1375,260 +1365,304 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
-        <v>52</v>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>56</v>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
+      <c r="C46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -18,40 +18,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Reiter, Claudia</author>
-  </authors>
-  <commentList>
-    <comment ref="C28" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Reiter, Claudia:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-need to ask Samir what the threshold is</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
@@ -193,9 +159,6 @@
     <t>Is there also information on  &lt;strong&gt;immigration and emigration&lt;/strong&gt;n available?</t>
   </si>
   <si>
-    <t>Why are &lt;strong&gt;some indicators&lt;/strong&gt; only available by the &lt;strong&gt;Medium (SSP2) scenario&lt;/strong&gt;?</t>
-  </si>
-  <si>
     <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
   </si>
   <si>
@@ -211,12 +174,6 @@
     <t>Five different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
   </si>
   <si>
-    <t>This is due to methodological constraints. The following indicators are only available by Medium (SSP2) scenario: Prospective Median Age, Age when remaining Life Expectancy is below 15 years, and Proportion of Population with a Remaining Life Expectancy below 15 Years.</t>
-  </si>
-  <si>
-    <t>Why are SSP 4 and 5 not available anymore in Version 2.0?</t>
-  </si>
-  <si>
     <t>The interpretation of narratives for SSP4 and SSP5 did not lead to meaningful demographic and human capital scenarios and we decided therefore not to present them in version 2.0.</t>
   </si>
   <si>
@@ -233,9 +190,6 @@
   </si>
   <si>
     <t>The WIC Data Explorer currently includes data on the following topics for 201 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2017 revision&lt;/a&gt; by the UN Population Division (2015 base-year population by age and sex and estimates for 1950-2015, and information about fertility, mortality and migration and related indicators. The data are explained in two publications: </t>
   </si>
   <si>
     <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2015). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
@@ -318,15 +272,9 @@
     </r>
   </si>
   <si>
-    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/PDF/Publications/Working_Papers/WP2018_14.pdf'&gt;Speringer et al., 2018, VID WP 14/2018&lt;/a&gt; or the Education Definitions tab.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on &lt;a href='https://guyabel.com/publication/global-migration-estimates-by-gender/'&gt;Abel, 2017&lt;/a&gt;, from where you can obtain in- and outflow data from 1960 to 2015. </t>
   </si>
   <si>
-    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/PDF/Publications/Working_Papers/WP2018_14.pdf'&gt;Speringer et al. 2018&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Why is the data in the Data Explorer slightly different from the data published in &lt;a href="https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries"&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt;?</t>
   </si>
   <si>
@@ -358,13 +306,31 @@
   </si>
   <si>
     <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;a&gt;Total Fertility Rate by Education”&lt;/a&gt; very volatile, while country results look smooth?</t>
+  </si>
+  <si>
+    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/PDF/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al. 2019&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/PDF/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
+  </si>
+  <si>
+    <t>Why are SSP4 and 5 not available anymore in Version 2.0?</t>
+  </si>
+  <si>
+    <t>Due to roundings to three digits values very close to 1 (e.g. 0.999999) are shown as 1.000.</t>
+  </si>
+  <si>
+    <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2017 revision&lt;/a&gt; by the United Nations Population Division (2015 base-year population by age and sex and estimates for 1950-2010, and information about fertility, mortality and migration and related indicators for 1950-2015). The data are explained in two publications: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>How is it possible that the indicators &lt;strong&gt;Age-Specific Survival Ratio&lt;/strong&gt; and &lt;strong&gt;Age-Specific Survival Ratio by Education&lt;/strong&gt; show values as high as 100 percent?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,19 +480,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1223,13 +1176,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1281,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1292,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1314,7 +1267,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,7 +1333,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,7 +1344,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1402,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1413,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1424,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1435,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1457,7 +1410,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1465,10 +1418,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1476,10 +1429,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1487,10 +1440,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1498,10 +1451,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1509,21 +1462,21 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>57</v>
+      <c r="B26" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1531,54 +1484,54 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>71</v>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>78</v>
+      <c r="B29" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>79</v>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1589,7 +1542,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,10 +1572,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,6 +1620,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="21" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>category</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>I have a &lt;strong&gt;question&lt;/strong&gt; that is &lt;strong&gt;not in the FAQs&lt;/strong&gt;, whom should I contact?</t>
-  </si>
-  <si>
-    <t>Why do I get the following message in the table when I submit my selection: ' &lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
   </si>
   <si>
     <t>If you get this message, you have not selected a geography, a sex/age breakdown or a time horizon that is necessary for display. Please check your selection again.</t>
@@ -305,9 +302,6 @@
     <t>Why is there a &lt;strong&gt;break in time series&lt;/strong&gt; between 2010 and 2015 for many &lt;strong&gt;regions&lt;/strong&gt; and indicators?</t>
   </si>
   <si>
-    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;a&gt;Total Fertility Rate by Education”&lt;/a&gt; very volatile, while country results look smooth?</t>
-  </si>
-  <si>
     <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/PDF/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al. 2019&lt;/a&gt;.</t>
   </si>
   <si>
@@ -324,6 +318,24 @@
   </si>
   <si>
     <t>How is it possible that the indicators &lt;strong&gt;Age-Specific Survival Ratio&lt;/strong&gt; and &lt;strong&gt;Age-Specific Survival Ratio by Education&lt;/strong&gt; show values as high as 100 percent?</t>
+  </si>
+  <si>
+    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
+  </si>
+  <si>
+    <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
+  </si>
+  <si>
+    <t>Why is the &lt;strong&gt;8 education categories&lt;/strong&gt; choice not available for all countries and all years?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to insufficient data on sub-categories for post-secondary education, the categories 'Short Post-Secondary', 'Bachelor' and 'Master and higher' are only available for 60 countries from 2015 onwards. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN Population Division, World Population Prospects 2017 data was obtained through the R package 'wpp2017' which displays slightly different values than the download files. </t>
+  </si>
+  <si>
+    <t>Why is data referenced to &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; slightly different from what I find in &lt;a href="https://population.un.org/wpp/Download/Standard/Population/"&gt;UN Word Population Prospects 2017 download files&lt;/a&gt;?</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1192,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1246,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,7 +1268,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,7 +1279,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,10 +1309,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,7 +1345,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,7 +1356,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1355,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1377,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1385,10 +1397,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1396,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1407,10 +1419,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1418,10 +1430,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1429,10 +1441,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1440,10 +1452,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1451,10 +1463,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1462,43 +1474,43 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>63</v>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>66</v>
+      <c r="B27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>67</v>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1506,10 +1518,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1520,7 +1532,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1528,32 +1540,32 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>15</v>
+      <c r="C33" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,10 +1573,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,10 +1584,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,10 +1595,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,10 +1606,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,17 +1617,39 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16AB48-E8CB-4366-BFE8-DFA6B5838911}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faq" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>category</t>
   </si>
@@ -102,9 +103,6 @@
     <t>What &lt;strong&gt;countries and regions&lt;/strong&gt; are included in the WIC Data Explorer?</t>
   </si>
   <si>
-    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'</t>
-  </si>
-  <si>
     <t>Which and how many &lt;strong&gt;scenarios&lt;/strong&gt; are included in the WIC Data Explorer?</t>
   </si>
   <si>
@@ -153,9 +151,6 @@
     <t>To get the best user experience we recommend to use &lt;a href='https://www.google.com/chrome/'&gt;Google Chrome&lt;/a&gt; or &lt;a href='https://www.mozilla.org/en-US/firefox/new/'&gt;Mozilla Firefox&lt;/a&gt;.</t>
   </si>
   <si>
-    <t>Is there also information on  &lt;strong&gt;immigration and emigration&lt;/strong&gt;n available?</t>
-  </si>
-  <si>
     <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
   </si>
   <si>
@@ -174,13 +169,7 @@
     <t>The interpretation of narratives for SSP4 and SSP5 did not lead to meaningful demographic and human capital scenarios and we decided therefore not to present them in version 2.0.</t>
   </si>
   <si>
-    <t>What is new compared to Version 1.2?</t>
-  </si>
-  <si>
     <t xml:space="preserve">The number of countries with data on educational attainement has been increased to 185 (from 171 in Version 1.2). We have updated the education data with the most recent valid datasets. Whenever possible, we have also disaggregated the post-secondary education category in more categories following ISCED 11. Furthermore, the reconstruction goes back to 1950 (instead of 1970 in Version 1.2). </t>
-  </si>
-  <si>
-    <t>Why is the reconstructed data from 1970 to 2010 different from Version 1.2?</t>
   </si>
   <si>
     <t>Due to methodological constraints, only countries with a population of more than 100,000 people in 2015 are currently considered in the database (the Seychelles is the only exception).</t>
@@ -272,9 +261,6 @@
     <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on &lt;a href='https://guyabel.com/publication/global-migration-estimates-by-gender/'&gt;Abel, 2017&lt;/a&gt;, from where you can obtain in- and outflow data from 1960 to 2015. </t>
   </si>
   <si>
-    <t>Why is the data in the Data Explorer slightly different from the data published in &lt;a href="https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries"&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt;?</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is due to later data adjustments in the course of validating the Data Explorer 2.0, resulting in minor changes to the projection results. </t>
   </si>
   <si>
@@ -308,18 +294,9 @@
     <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/PDF/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
   </si>
   <si>
-    <t>Why are SSP4 and 5 not available anymore in Version 2.0?</t>
-  </si>
-  <si>
-    <t>Due to roundings to three digits values very close to 1 (e.g. 0.999999) are shown as 1.000.</t>
-  </si>
-  <si>
     <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2017 revision&lt;/a&gt; by the United Nations Population Division (2015 base-year population by age and sex and estimates for 1950-2010, and information about fertility, mortality and migration and related indicators for 1950-2015). The data are explained in two publications: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;.</t>
   </si>
   <si>
-    <t>How is it possible that the indicators &lt;strong&gt;Age-Specific Survival Ratio&lt;/strong&gt; and &lt;strong&gt;Age-Specific Survival Ratio by Education&lt;/strong&gt; show values as high as 100 percent?</t>
-  </si>
-  <si>
     <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
   </si>
   <si>
@@ -329,19 +306,37 @@
     <t>Why is the &lt;strong&gt;8 education categories&lt;/strong&gt; choice not available for all countries and all years?</t>
   </si>
   <si>
-    <t xml:space="preserve">Due to insufficient data on sub-categories for post-secondary education, the categories 'Short Post-Secondary', 'Bachelor' and 'Master and higher' are only available for 60 countries from 2015 onwards. </t>
-  </si>
-  <si>
     <t xml:space="preserve">UN Population Division, World Population Prospects 2017 data was obtained through the R package 'wpp2017' which displays slightly different values than the download files. </t>
   </si>
   <si>
-    <t>Why is data referenced to &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; slightly different from what I find in &lt;a href="https://population.un.org/wpp/Download/Standard/Population/"&gt;UN Word Population Prospects 2017 download files&lt;/a&gt;?</t>
+    <t>Why are &lt;strong&gt;SSP4 and 5 not available&lt;/strong&gt; anymore in Version 2.0?</t>
+  </si>
+  <si>
+    <t>Why is the &lt;strong&gt;reconstructed data&lt;/strong&gt; from 1970 to 2010 different from Version 1.2?</t>
+  </si>
+  <si>
+    <t>What is &lt;strong&gt;new compared to Version 1.2&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>Why is data referenced to &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;&lt;strong&gt;UN Population Division, World Population Prospects 2017&lt;/strong&gt;&lt;/a&gt; slightly different from what I find in UN World Population Prospects 2017 &lt;a href="https://population.un.org/wpp/Download/Standard/Population/"&gt;download files&lt;/a&gt;?</t>
+  </si>
+  <si>
+    <t>Why is the data in the Data Explorer slightly &lt;strong&gt;different from the data published&lt;/strong&gt; in &lt;a href="https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries"&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt;?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to insufficient data on sub-categories for post-secondary education, the categories 'Short Post-Secondary', 'Bachelor' and 'Master and higher' are only available for EU-28 countries from 2015 onwards. </t>
+  </si>
+  <si>
+    <t>Is there also information on &lt;strong&gt;immigration and emigration&lt;/strong&gt; available?</t>
+  </si>
+  <si>
+    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -978,6 +973,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1013,6 +1025,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1188,14 +1217,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,7 +1275,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1268,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,7 +1308,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,7 +1319,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,10 +1338,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,7 +1374,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,10 +1382,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1367,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1389,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1397,10 +1426,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1419,10 +1448,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1430,10 +1459,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1441,10 +1470,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1452,10 +1481,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1463,10 +1492,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1474,10 +1503,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1485,10 +1514,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1496,10 +1525,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1507,10 +1536,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1518,10 +1547,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1529,10 +1558,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1540,10 +1569,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1551,21 +1580,21 @@
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,10 +1602,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1584,10 +1613,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1595,10 +1624,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,10 +1635,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1617,10 +1646,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,28 +1657,17 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16AB48-E8CB-4366-BFE8-DFA6B5838911}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="faq" sheetId="1" r:id="rId1"/>
@@ -324,19 +323,19 @@
     <t>Why is the data in the Data Explorer slightly &lt;strong&gt;different from the data published&lt;/strong&gt; in &lt;a href="https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries"&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt;?</t>
   </si>
   <si>
-    <t xml:space="preserve">Due to insufficient data on sub-categories for post-secondary education, the categories 'Short Post-Secondary', 'Bachelor' and 'Master and higher' are only available for EU-28 countries from 2015 onwards. </t>
-  </si>
-  <si>
     <t>Is there also information on &lt;strong&gt;immigration and emigration&lt;/strong&gt; available?</t>
   </si>
   <si>
     <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to insufficient data on sub-categories for post-secondary education, the categories 'Short Post-Secondary', 'Bachelor' and 'Master and higher' are only available for 59 countries from 2015 onwards. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -973,23 +972,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1025,23 +1007,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1217,15 +1182,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1382,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>44</v>
@@ -1429,7 +1392,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1481,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>57</v>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -287,12 +287,6 @@
     <t>Why is there a &lt;strong&gt;break in time series&lt;/strong&gt; between 2010 and 2015 for many &lt;strong&gt;regions&lt;/strong&gt; and indicators?</t>
   </si>
   <si>
-    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/PDF/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al. 2019&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/PDF/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
-  </si>
-  <si>
     <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2017 revision&lt;/a&gt; by the United Nations Population Division (2015 base-year population by age and sex and estimates for 1950-2010, and information about fertility, mortality and migration and related indicators for 1950-2015). The data are explained in two publications: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;.</t>
   </si>
   <si>
@@ -330,6 +324,12 @@
   </si>
   <si>
     <t xml:space="preserve">Due to insufficient data on sub-categories for post-secondary education, the categories 'Short Post-Secondary', 'Bachelor' and 'Master and higher' are only available for 59 countries from 2015 onwards. </t>
+  </si>
+  <si>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
+  </si>
+  <si>
+    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al. 2019&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>44</v>
@@ -1381,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1389,10 +1389,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
@@ -1444,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>57</v>
@@ -1455,7 +1455,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
@@ -1466,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1488,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>58</v>
@@ -1532,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>62</v>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abel\Documents\GitHub\wcde-shiny\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>Five different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t>The interpretation of narratives for SSP4 and SSP5 did not lead to meaningful demographic and human capital scenarios and we decided therefore not to present them in version 2.0.</t>
   </si>
   <si>
     <t xml:space="preserve">The number of countries with data on educational attainement has been increased to 185 (from 171 in Version 1.2). We have updated the education data with the most recent valid datasets. Whenever possible, we have also disaggregated the post-secondary education category in more categories following ISCED 11. Furthermore, the reconstruction goes back to 1950 (instead of 1970 in Version 1.2). </t>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al. 2019&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>SSP4 and SSP5 were finalized in 2020 (&lt;a href = 'http://pure.iiasa.ac.at/id/eprint/16710/1/WP-20-016.pdf'&gt;link&lt;/a&gt;), the results for population and mean years of schooling can be downloaded directly &lt;a href = 'http://pure.iiasa.ac.at/id/eprint/17550/1/Global population and human capital projections.zip'&gt;here&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1188,9 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1238,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1271,7 +1273,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1337,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>44</v>
@@ -1359,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,7 +1383,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1389,10 +1391,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1403,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1433,10 +1435,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1444,10 +1446,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1455,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
@@ -1466,10 +1468,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1477,10 +1479,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1488,10 +1490,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1499,10 +1501,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1510,10 +1512,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1521,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1532,10 +1534,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1543,10 +1545,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,7 +1559,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abel\Documents\GitHub\wcde-shiny\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyildiz\Dropbox\PC\Documents\GitHub\fume-shiny\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E655BC-1E9A-4D13-8DC3-463A72971952}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faq" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>category</t>
   </si>
@@ -105,9 +106,6 @@
     <t>Which and how many &lt;strong&gt;scenarios&lt;/strong&gt; are included in the WIC Data Explorer?</t>
   </si>
   <si>
-    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://wu.ac.at/'&gt;Vienna University of Economics and Business (WU)&lt;/a&gt;. Its aim is to be a world leader in the advancement of demographic methods and their application to the analysis of human capital and population dynamics by combining the three partner organizations' strengths in the fields of demography, human capital formation, and analysis of the returns to education.</t>
-  </si>
-  <si>
     <t>Yes, webmasters can place links to the WIC Data Explorer without  special permission. Nevertheless, we would appreciate &lt;a href='mailto:data@wittgensteincentre.org'&gt;notification&lt;/a&gt; if you do so.</t>
   </si>
   <si>
@@ -153,41 +151,89 @@
     <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
   </si>
   <si>
-    <t>For 16 countries it was not possible to obtain data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
-  </si>
-  <si>
     <t xml:space="preserve">PDF reports are available for all 201 countries, with tables of detailed results of projections for each of the EU-28 countries, and tables with chosen results of projections for all of the other countries in the world. </t>
   </si>
   <si>
     <t>For which countries are &lt;strong&gt;PDFs with additional information&lt;/strong&gt; available?</t>
   </si>
   <si>
-    <t>Five different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of countries with data on educational attainement has been increased to 185 (from 171 in Version 1.2). We have updated the education data with the most recent valid datasets. Whenever possible, we have also disaggregated the post-secondary education category in more categories following ISCED 11. Furthermore, the reconstruction goes back to 1950 (instead of 1970 in Version 1.2). </t>
-  </si>
-  <si>
-    <t>Due to methodological constraints, only countries with a population of more than 100,000 people in 2015 are currently considered in the database (the Seychelles is the only exception).</t>
-  </si>
-  <si>
-    <t>The WIC Data Explorer currently includes data on the following topics for 201 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
-  </si>
-  <si>
-    <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2015). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be  referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 2.0 2018'</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator; (2) Select the geography by choosing countries and/or regions; (3) Choose the preferred sex and age categories; (4) Choose the  scenarios and years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
   </si>
   <si>
-    <t>201 countries are included in the WIC Data Explorer. However, for 16 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. For those countries, we do not reconstruct back to 1950. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
+    <t xml:space="preserve">Why are &lt;strong&gt;Age-specific Fertility Rates by Education&lt;/strong&gt; and &lt;strong&gt;Total Fertility Rates by Education&lt;/strong&gt; in many cases equal for different education categories? </t>
+  </si>
+  <si>
+    <t>Due to methodological reasons, education categories are aggregated whenever their share in total population is below a certain threshold.</t>
+  </si>
+  <si>
+    <t>This is due to methodological constraints. As a result of different weights for different countries, regional aggregates of education-specific total fertility rates tend to show unsteady results.</t>
+  </si>
+  <si>
+    <t>In the bottom right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
+  </si>
+  <si>
+    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
+  </si>
+  <si>
+    <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
+  </si>
+  <si>
+    <t>Is there also information on &lt;strong&gt;immigration and emigration&lt;/strong&gt; available?</t>
+  </si>
+  <si>
+    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
+  </si>
+  <si>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
+  </si>
+  <si>
+    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://univie.ac.at/'&gt;University of Vienna&lt;/a&gt;. Its aim is to be a world leader in the advancement of demographic methods and their application to the analysis of human capital and population dynamics by combining the three partner organizations' strengths in the fields of demography, human capital formation, and analysis of the returns to education.</t>
+  </si>
+  <si>
+    <t>The WIC Data Explorer currently includes data on the following topics for 200 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
+  </si>
+  <si>
+    <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2015, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in two publications: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2020). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be  referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 3.0 2023'</t>
+  </si>
+  <si>
+    <t>What is the &lt;strong&gt;reference time&lt;/strong&gt; for the WIC data?</t>
+  </si>
+  <si>
+    <t>The reference time for WIC data is 1st of January of the year in question.</t>
+  </si>
+  <si>
+    <t>For 15 countries it was not possible to obtain data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
+  </si>
+  <si>
+    <t>Due to methodological constraints, only countries with a population of more than 80,000 people in 2020 are currently considered in the database (the Seychelles is the only exception).</t>
+  </si>
+  <si>
+    <t>The reconstruction of population by levels of educational attainment from 1950 to 2020 will be made available in 2024.</t>
+  </si>
+  <si>
+    <t>Why is there no data for the period &lt;strong&gt;before 2020&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>Why is the &lt;strong&gt;8 education categories&lt;/strong&gt; choice not available for this version?</t>
+  </si>
+  <si>
+    <t>In this version we decided to consider only 6 education categories.</t>
+  </si>
+  <si>
+    <t>200 countries are included in the WIC Data Explorer. However, for 15 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Seven different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
   </si>
   <si>
     <r>
-      <t>Currently data are included from 1950 until 2100. The base year for the projections is 2015. Stock estimates (e.g. population size) refer to 1</t>
+      <t>Currently data are included from 2020 until 2100. The base year for the projections is 2020. Stock estimates (e.g. population size) refer to 1</t>
     </r>
     <r>
       <rPr>
@@ -208,7 +254,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of July of the year in question. Period estimates (e.g. total fertility rates) refer to the period between the 1</t>
+      <t xml:space="preserve"> of January of the year in question. Period estimates (e.g. total fertility rates) refer to the period between the 1</t>
     </r>
     <r>
       <rPr>
@@ -229,7 +275,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of July of the starting year and 30</t>
+      <t xml:space="preserve"> of January of the starting year and 31</t>
     </r>
     <r>
       <rPr>
@@ -250,92 +296,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of June of the ending year of the period in question.</t>
+      <t xml:space="preserve"> of December of the ending year of the period in question.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on &lt;a href='https://guyabel.com/publication/global-migration-estimates-by-gender/'&gt;Abel, 2017&lt;/a&gt;, from where you can obtain in- and outflow data from 1960 to 2015. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is due to later data adjustments in the course of validating the Data Explorer 2.0, resulting in minor changes to the projection results. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why are &lt;strong&gt;Age-specific Fertility Rates by Education&lt;/strong&gt; and &lt;strong&gt;Total Fertility Rates by Education&lt;/strong&gt; in many cases equal for different education categories? </t>
-  </si>
-  <si>
-    <t>Due to methodological reasons, education categories are aggregated whenever their share in total population is below a certain threshold.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While the reconstruction of population by levels of educational attainment from 1950 to 2015 covers 185 countries, population projections include 201 countries. Hence, proxy data for the missing countries have to be used to calculate regional aggregates, resulting in minor breaks in time series. </t>
-  </si>
-  <si>
-    <t>This is due to methodological constraints. As a result of different weights for different countries, regional aggregates of education-specific total fertility rates tend to show unsteady results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due to methodological reasons slightly different calculations are used for the historical reconstruction (based on 6 education categories) and the projections (based on 8 education categories) of this indicator. </t>
-  </si>
-  <si>
-    <t>In the bottom right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why is there a break in time series between 2010 and 2015 for &lt;strong&gt;Mean Years of Schooling&lt;/strong&gt; for some countries? </t>
-  </si>
-  <si>
-    <t>Why is there a &lt;strong&gt;break in time series&lt;/strong&gt; between 2010 and 2015 for many &lt;strong&gt;regions&lt;/strong&gt; and indicators?</t>
-  </si>
-  <si>
-    <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2017 revision&lt;/a&gt; by the United Nations Population Division (2015 base-year population by age and sex and estimates for 1950-2010, and information about fertility, mortality and migration and related indicators for 1950-2015). The data are explained in two publications: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
-  </si>
-  <si>
-    <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
-  </si>
-  <si>
-    <t>Why is the &lt;strong&gt;8 education categories&lt;/strong&gt; choice not available for all countries and all years?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN Population Division, World Population Prospects 2017 data was obtained through the R package 'wpp2017' which displays slightly different values than the download files. </t>
-  </si>
-  <si>
-    <t>Why are &lt;strong&gt;SSP4 and 5 not available&lt;/strong&gt; anymore in Version 2.0?</t>
-  </si>
-  <si>
-    <t>Why is the &lt;strong&gt;reconstructed data&lt;/strong&gt; from 1970 to 2010 different from Version 1.2?</t>
-  </si>
-  <si>
-    <t>What is &lt;strong&gt;new compared to Version 1.2&lt;/strong&gt;?</t>
-  </si>
-  <si>
-    <t>Why is data referenced to &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;&lt;strong&gt;UN Population Division, World Population Prospects 2017&lt;/strong&gt;&lt;/a&gt; slightly different from what I find in UN World Population Prospects 2017 &lt;a href="https://population.un.org/wpp/Download/Standard/Population/"&gt;download files&lt;/a&gt;?</t>
-  </si>
-  <si>
-    <t>Why is the data in the Data Explorer slightly &lt;strong&gt;different from the data published&lt;/strong&gt; in &lt;a href="https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries"&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt;?</t>
-  </si>
-  <si>
-    <t>Is there also information on &lt;strong&gt;immigration and emigration&lt;/strong&gt; available?</t>
-  </si>
-  <si>
-    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due to insufficient data on sub-categories for post-secondary education, the categories 'Short Post-Secondary', 'Bachelor' and 'Master and higher' are only available for 59 countries from 2015 onwards. </t>
-  </si>
-  <si>
-    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
-  </si>
-  <si>
-    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al. 2019&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>SSP4 and SSP5 were finalized in 2020 (&lt;a href = 'http://pure.iiasa.ac.at/id/eprint/16710/1/WP-20-016.pdf'&gt;link&lt;/a&gt;), the results for population and mean years of schooling can be downloaded directly &lt;a href = 'http://pure.iiasa.ac.at/id/eprint/17550/1/Global population and human capital projections.zip'&gt;here&lt;/a&gt;.</t>
+    <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on &lt;a href='https://guyabel.com//publication//bilateral-migration-flow-sex//'&gt;Abel, 2022&lt;/a&gt;, from where you can obtain in- and outflow data from 1990 to 2020. </t>
+  </si>
+  <si>
+    <t>What is &lt;strong&gt;new compared to Version 2&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>The Version 3 update is the most comprehensive since 2013, extending beyond updating the base year to 2020. Short-term assumptions (up to 2030) have been occasionally updated, while assumptions for 2050 and 2100 remain largely unchanged since they were based on comprehensive analyses and expert input. However, the trend component of the assumptions has been modified based on recent observations. Modeling methodology, fertility, migration, and education have also been modified. Education-specific fertility levels have been updated with new estimates, and education differentials in mortality are now country- and region-specific rather than being normalized to a single level by gender. Also, education-specific migration rates are implemented in the projection model for the first time.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -972,6 +949,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1007,6 +1001,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1182,14 +1193,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,7 +1284,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,7 +1295,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,10 +1314,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1314,32 +1325,32 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,21 +1358,21 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,32 +1380,32 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>78</v>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1402,10 +1413,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1413,10 +1424,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1424,10 +1435,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1435,10 +1446,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1446,10 +1457,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1457,10 +1468,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1468,10 +1479,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1482,18 +1493,18 @@
         <v>72</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>70</v>
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1501,54 +1512,54 @@
         <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1556,10 +1567,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,10 +1578,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1578,61 +1589,17 @@
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B39" s="5"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
+      <c r="C43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyildiz\Dropbox\PC\Documents\GitHub\fume-shiny\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyildiz\Dropbox\PC\Documents\GitHub\wcde-shiny-2023\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E655BC-1E9A-4D13-8DC3-463A72971952}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFE4034-A3B0-4C15-A5D1-3C5A2AA0D5D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>category</t>
   </si>
@@ -151,12 +151,6 @@
     <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
   </si>
   <si>
-    <t xml:space="preserve">PDF reports are available for all 201 countries, with tables of detailed results of projections for each of the EU-28 countries, and tables with chosen results of projections for all of the other countries in the world. </t>
-  </si>
-  <si>
-    <t>For which countries are &lt;strong&gt;PDFs with additional information&lt;/strong&gt; available?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator; (2) Select the geography by choosing countries and/or regions; (3) Choose the preferred sex and age categories; (4) Choose the  scenarios and years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
   </si>
   <si>
@@ -178,55 +172,25 @@
     <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
   </si>
   <si>
-    <t>Is there also information on &lt;strong&gt;immigration and emigration&lt;/strong&gt; available?</t>
-  </si>
-  <si>
     <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
   </si>
   <si>
-    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
-  </si>
-  <si>
-    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://univie.ac.at/'&gt;University of Vienna&lt;/a&gt;. Its aim is to be a world leader in the advancement of demographic methods and their application to the analysis of human capital and population dynamics by combining the three partner organizations' strengths in the fields of demography, human capital formation, and analysis of the returns to education.</t>
-  </si>
-  <si>
     <t>The WIC Data Explorer currently includes data on the following topics for 200 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
   </si>
   <si>
-    <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2015, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in two publications: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2020). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
   </si>
   <si>
-    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be  referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 3.0 2023'</t>
-  </si>
-  <si>
     <t>What is the &lt;strong&gt;reference time&lt;/strong&gt; for the WIC data?</t>
   </si>
   <si>
     <t>The reference time for WIC data is 1st of January of the year in question.</t>
   </si>
   <si>
-    <t>For 15 countries it was not possible to obtain data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
-  </si>
-  <si>
-    <t>Due to methodological constraints, only countries with a population of more than 80,000 people in 2020 are currently considered in the database (the Seychelles is the only exception).</t>
-  </si>
-  <si>
     <t>The reconstruction of population by levels of educational attainment from 1950 to 2020 will be made available in 2024.</t>
   </si>
   <si>
     <t>Why is there no data for the period &lt;strong&gt;before 2020&lt;/strong&gt;?</t>
-  </si>
-  <si>
-    <t>Why is the &lt;strong&gt;8 education categories&lt;/strong&gt; choice not available for this version?</t>
-  </si>
-  <si>
-    <t>In this version we decided to consider only 6 education categories.</t>
-  </si>
-  <si>
-    <t>200 countries are included in the WIC Data Explorer. However, for 15 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
   </si>
   <si>
     <t>Seven different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
@@ -300,13 +264,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on &lt;a href='https://guyabel.com//publication//bilateral-migration-flow-sex//'&gt;Abel, 2022&lt;/a&gt;, from where you can obtain in- and outflow data from 1990 to 2020. </t>
-  </si>
-  <si>
     <t>What is &lt;strong&gt;new compared to Version 2&lt;/strong&gt;?</t>
   </si>
   <si>
     <t>The Version 3 update is the most comprehensive since 2013, extending beyond updating the base year to 2020. Short-term assumptions (up to 2030) have been occasionally updated, while assumptions for 2050 and 2100 remain largely unchanged since they were based on comprehensive analyses and expert input. However, the trend component of the assumptions has been modified based on recent observations. Modeling methodology, fertility, migration, and education have also been modified. Education-specific fertility levels have been updated with new estimates, and education differentials in mortality are now country- and region-specific rather than being normalized to a single level by gender. Also, education-specific migration rates are implemented in the projection model for the first time.</t>
+  </si>
+  <si>
+    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://univie.ac.at/'&gt;University of Vienna&lt;/a&gt;. The aim of the Wittgenstein Centre is to advance demographic methods and their application in analyzing human capital and population dynamics by leveraging the strengths of the three partner organizations in the fields of demography, human capital formation, and the analysis of returns to education.</t>
+  </si>
+  <si>
+    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 3.0 2023'</t>
+  </si>
+  <si>
+    <t>200 countries are included in the WIC Data Explorer. However, for 15 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find (good quality) education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Due to methodological constraints, only countries with a population of more than 80,000 people in 2020 are currently considered in the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2020, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in several publications: KC et al. (2024), Yildiz and Abel (2024), Moradhvaj and KC (2024 forthcoming) and  Adhikari et al. (2024 forthcoming). The methodology and the rationale behind the assumptions underlying the scenarios are detailed in: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>For 15 countries it was not possible to obtain (good quality) data on educational attainment for the base year. Hence, approximations based on regional averages or similar countries were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
+  </si>
+  <si>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see KC et al. (2024),  &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1179,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,7 +1244,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,7 +1266,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,10 +1307,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1336,10 +1318,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,7 +1354,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1394,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1424,10 +1406,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1435,10 +1417,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1446,10 +1428,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1457,10 +1439,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1468,54 +1450,54 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="4" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>48</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,10 +1505,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,10 +1516,10 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1545,10 +1527,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1556,50 +1538,17 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abel\Documents\GitHub\wcde-shiny\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiasahub-my.sharepoint.com/personal/yildiz_iiasa_ac_at/Documents/GitHub/wcde-shiny-2023/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE621B1-20C2-4C13-920C-B1EE3E7FEC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faq" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>category</t>
   </si>
@@ -105,9 +106,6 @@
     <t>Which and how many &lt;strong&gt;scenarios&lt;/strong&gt; are included in the WIC Data Explorer?</t>
   </si>
   <si>
-    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://wu.ac.at/'&gt;Vienna University of Economics and Business (WU)&lt;/a&gt;. Its aim is to be a world leader in the advancement of demographic methods and their application to the analysis of human capital and population dynamics by combining the three partner organizations' strengths in the fields of demography, human capital formation, and analysis of the returns to education.</t>
-  </si>
-  <si>
     <t>Yes, webmasters can place links to the WIC Data Explorer without  special permission. Nevertheless, we would appreciate &lt;a href='mailto:data@wittgensteincentre.org'&gt;notification&lt;/a&gt; if you do so.</t>
   </si>
   <si>
@@ -153,41 +151,53 @@
     <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
   </si>
   <si>
-    <t>For 16 countries it was not possible to obtain data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDF reports are available for all 201 countries, with tables of detailed results of projections for each of the EU-28 countries, and tables with chosen results of projections for all of the other countries in the world. </t>
-  </si>
-  <si>
-    <t>For which countries are &lt;strong&gt;PDFs with additional information&lt;/strong&gt; available?</t>
-  </si>
-  <si>
-    <t>Five different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of countries with data on educational attainement has been increased to 185 (from 171 in Version 1.2). We have updated the education data with the most recent valid datasets. Whenever possible, we have also disaggregated the post-secondary education category in more categories following ISCED 11. Furthermore, the reconstruction goes back to 1950 (instead of 1970 in Version 1.2). </t>
-  </si>
-  <si>
-    <t>Due to methodological constraints, only countries with a population of more than 100,000 people in 2015 are currently considered in the database (the Seychelles is the only exception).</t>
-  </si>
-  <si>
-    <t>The WIC Data Explorer currently includes data on the following topics for 201 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
-  </si>
-  <si>
-    <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2015). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be  referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 2.0 2018'</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator; (2) Select the geography by choosing countries and/or regions; (3) Choose the preferred sex and age categories; (4) Choose the  scenarios and years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
   </si>
   <si>
-    <t>201 countries are included in the WIC Data Explorer. However, for 16 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. For those countries, we do not reconstruct back to 1950. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
+    <t xml:space="preserve">Why are &lt;strong&gt;Age-specific Fertility Rates by Education&lt;/strong&gt; and &lt;strong&gt;Total Fertility Rates by Education&lt;/strong&gt; in many cases equal for different education categories? </t>
+  </si>
+  <si>
+    <t>Due to methodological reasons, education categories are aggregated whenever their share in total population is below a certain threshold.</t>
+  </si>
+  <si>
+    <t>This is due to methodological constraints. As a result of different weights for different countries, regional aggregates of education-specific total fertility rates tend to show unsteady results.</t>
+  </si>
+  <si>
+    <t>In the bottom right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
+  </si>
+  <si>
+    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
+  </si>
+  <si>
+    <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
+  </si>
+  <si>
+    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
+  </si>
+  <si>
+    <t>The WIC Data Explorer currently includes data on the following topics for 200 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
+  </si>
+  <si>
+    <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2020). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>What is the &lt;strong&gt;reference time&lt;/strong&gt; for the WIC data?</t>
+  </si>
+  <si>
+    <t>The reference time for WIC data is 1st of January of the year in question.</t>
+  </si>
+  <si>
+    <t>The reconstruction of population by levels of educational attainment from 1950 to 2020 will be made available in 2024.</t>
+  </si>
+  <si>
+    <t>Why is there no data for the period &lt;strong&gt;before 2020&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>Seven different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
   </si>
   <si>
     <r>
-      <t>Currently data are included from 1950 until 2100. The base year for the projections is 2015. Stock estimates (e.g. population size) refer to 1</t>
+      <t>Currently data are included from 2020 until 2100. The base year for the projections is 2020. Stock estimates (e.g. population size) refer to 1</t>
     </r>
     <r>
       <rPr>
@@ -208,7 +218,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of July of the year in question. Period estimates (e.g. total fertility rates) refer to the period between the 1</t>
+      <t xml:space="preserve"> of January of the year in question. Period estimates (e.g. total fertility rates) refer to the period between the 1</t>
     </r>
     <r>
       <rPr>
@@ -229,7 +239,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of July of the starting year and 30</t>
+      <t xml:space="preserve"> of January of the starting year and 31</t>
     </r>
     <r>
       <rPr>
@@ -250,92 +260,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of June of the ending year of the period in question.</t>
+      <t xml:space="preserve"> of December of the ending year of the period in question.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on &lt;a href='https://guyabel.com/publication/global-migration-estimates-by-gender/'&gt;Abel, 2017&lt;/a&gt;, from where you can obtain in- and outflow data from 1960 to 2015. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is due to later data adjustments in the course of validating the Data Explorer 2.0, resulting in minor changes to the projection results. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why are &lt;strong&gt;Age-specific Fertility Rates by Education&lt;/strong&gt; and &lt;strong&gt;Total Fertility Rates by Education&lt;/strong&gt; in many cases equal for different education categories? </t>
-  </si>
-  <si>
-    <t>Due to methodological reasons, education categories are aggregated whenever their share in total population is below a certain threshold.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While the reconstruction of population by levels of educational attainment from 1950 to 2015 covers 185 countries, population projections include 201 countries. Hence, proxy data for the missing countries have to be used to calculate regional aggregates, resulting in minor breaks in time series. </t>
-  </si>
-  <si>
-    <t>This is due to methodological constraints. As a result of different weights for different countries, regional aggregates of education-specific total fertility rates tend to show unsteady results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due to methodological reasons slightly different calculations are used for the historical reconstruction (based on 6 education categories) and the projections (based on 8 education categories) of this indicator. </t>
-  </si>
-  <si>
-    <t>In the bottom right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why is there a break in time series between 2010 and 2015 for &lt;strong&gt;Mean Years of Schooling&lt;/strong&gt; for some countries? </t>
-  </si>
-  <si>
-    <t>Why is there a &lt;strong&gt;break in time series&lt;/strong&gt; between 2010 and 2015 for many &lt;strong&gt;regions&lt;/strong&gt; and indicators?</t>
-  </si>
-  <si>
-    <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2017 revision&lt;/a&gt; by the United Nations Population Division (2015 base-year population by age and sex and estimates for 1950-2010, and information about fertility, mortality and migration and related indicators for 1950-2015). The data are explained in two publications: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
-  </si>
-  <si>
-    <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
-  </si>
-  <si>
-    <t>Why is the &lt;strong&gt;8 education categories&lt;/strong&gt; choice not available for all countries and all years?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN Population Division, World Population Prospects 2017 data was obtained through the R package 'wpp2017' which displays slightly different values than the download files. </t>
-  </si>
-  <si>
-    <t>Why are &lt;strong&gt;SSP4 and 5 not available&lt;/strong&gt; anymore in Version 2.0?</t>
-  </si>
-  <si>
-    <t>Why is the &lt;strong&gt;reconstructed data&lt;/strong&gt; from 1970 to 2010 different from Version 1.2?</t>
-  </si>
-  <si>
-    <t>What is &lt;strong&gt;new compared to Version 1.2&lt;/strong&gt;?</t>
-  </si>
-  <si>
-    <t>Why is data referenced to &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;&lt;strong&gt;UN Population Division, World Population Prospects 2017&lt;/strong&gt;&lt;/a&gt; slightly different from what I find in UN World Population Prospects 2017 &lt;a href="https://population.un.org/wpp/Download/Standard/Population/"&gt;download files&lt;/a&gt;?</t>
-  </si>
-  <si>
-    <t>Why is the data in the Data Explorer slightly &lt;strong&gt;different from the data published&lt;/strong&gt; in &lt;a href="https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries"&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt;?</t>
-  </si>
-  <si>
-    <t>Is there also information on &lt;strong&gt;immigration and emigration&lt;/strong&gt; available?</t>
-  </si>
-  <si>
-    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due to insufficient data on sub-categories for post-secondary education, the categories 'Short Post-Secondary', 'Bachelor' and 'Master and higher' are only available for 59 countries from 2015 onwards. </t>
-  </si>
-  <si>
-    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
-  </si>
-  <si>
-    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al. 2019&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>SSP4 and SSP5 were finalized in 2020 (&lt;a href = 'http://pure.iiasa.ac.at/id/eprint/16710/1/WP-20-016.pdf'&gt;link&lt;/a&gt;), the results for population and mean years of schooling can be downloaded directly &lt;a href = 'http://pure.iiasa.ac.at/id/eprint/17550/1/Global population and human capital projections.zip'&gt;here&lt;/a&gt;.</t>
+    <t>What is &lt;strong&gt;new compared to Version 2&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>The Version 3 update is the most comprehensive since 2013, extending beyond updating the base year to 2020. Short-term assumptions (up to 2030) have been occasionally updated, while assumptions for 2050 and 2100 remain largely unchanged since they were based on comprehensive analyses and expert input. However, the trend component of the assumptions has been modified based on recent observations. Modeling methodology, fertility, migration, and education have also been modified. Education-specific fertility levels have been updated with new estimates, and education differentials in mortality are now country- and region-specific rather than being normalized to a single level by gender. Also, education-specific migration rates are implemented in the projection model for the first time.</t>
+  </si>
+  <si>
+    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://univie.ac.at/'&gt;University of Vienna&lt;/a&gt;. The aim of the Wittgenstein Centre is to advance demographic methods and their application in analyzing human capital and population dynamics by leveraging the strengths of the three partner organizations in the fields of demography, human capital formation, and the analysis of returns to education.</t>
+  </si>
+  <si>
+    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 3.0 2023'</t>
+  </si>
+  <si>
+    <t>200 countries are included in the WIC Data Explorer. However, for 15 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find (good quality) education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Due to methodological constraints, only countries with a population of more than 80,000 people in 2020 are currently considered in the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2020, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in several publications: KC et al. (2024), Yildiz and Abel (2024), Moradhvaj and KC (2024 forthcoming) and  Adhikari et al. (2024 forthcoming). The methodology and the rationale behind the assumptions underlying the scenarios are detailed in: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>For 15 countries it was not possible to obtain (good quality) data on educational attainment for the base year. Hence, approximations based on regional averages or similar countries were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
+  </si>
+  <si>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see KC et al. (2024),  &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -829,15 +788,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,9 +853,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -937,9 +893,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -974,7 +930,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1009,7 +965,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1182,457 +1138,380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="163.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="255.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="163.26953125" customWidth="1"/>
+    <col min="3" max="3" width="255.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiasahub-my.sharepoint.com/personal/yildiz_iiasa_ac_at/Documents/GitHub/wcde-shiny-2023/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yildiz\Dropbox\WIC Projections 2022\WCDE for Guy\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE621B1-20C2-4C13-920C-B1EE3E7FEC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329B4C1-5B0D-4B05-BA4E-79114D9A9EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faq" sheetId="1" r:id="rId1"/>
@@ -282,13 +282,13 @@
     <t>Due to methodological constraints, only countries with a population of more than 80,000 people in 2020 are currently considered in the database.</t>
   </si>
   <si>
-    <t xml:space="preserve">The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2020, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in several publications: KC et al. (2024), Yildiz and Abel (2024), Moradhvaj and KC (2024 forthcoming) and  Adhikari et al. (2024 forthcoming). The methodology and the rationale behind the assumptions underlying the scenarios are detailed in: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;. </t>
-  </si>
-  <si>
     <t>For 15 countries it was not possible to obtain (good quality) data on educational attainment for the base year. Hence, approximations based on regional averages or similar countries were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
   </si>
   <si>
-    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see KC et al. (2024),  &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://pure.iiasa.ac.at/19487'&gt;K.C. et al. (2024)&lt;/a&gt;,  &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019&lt;/a&gt;, or the Education Definitions tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2020, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in several publications:  &lt;a href='https://pure.iiasa.ac.at/19487'&gt;K.C. et al. (2024)&lt;/a&gt;,  &lt;a href='https://pure.iiasa.ac.at/19399'&gt;Yildiz and Abel (2024)&lt;/a&gt;, Dhakad and KC (2024 forthcoming) and  Adhikari et al. (2024 forthcoming). The methodology and the rationale behind the assumptions underlying the scenarios are detailed in: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;. </t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1207,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1328,7 +1328,7 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yildiz\Dropbox\WIC Projections 2022\WCDE for Guy\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy Abel\Documents\Github\wcde-shiny\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329B4C1-5B0D-4B05-BA4E-79114D9A9EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009596D-83F7-48EA-A853-E8B58D26A1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1110" windowWidth="26790" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faq" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>category</t>
   </si>
@@ -290,12 +290,29 @@
   <si>
     <t xml:space="preserve">The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2020, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in several publications:  &lt;a href='https://pure.iiasa.ac.at/19487'&gt;K.C. et al. (2024)&lt;/a&gt;,  &lt;a href='https://pure.iiasa.ac.at/19399'&gt;Yildiz and Abel (2024)&lt;/a&gt;, Dhakad and KC (2024 forthcoming) and  Adhikari et al. (2024 forthcoming). The methodology and the rationale behind the assumptions underlying the scenarios are detailed in: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;. </t>
   </si>
+  <si>
+    <t>What is different in version 3.1</t>
+  </si>
+  <si>
+    <r>
+      <t>Due to a coding error, we noticed that the education data for men and women had been reversed in the base year for 37 countries listed below. As a result, we reran the projections and validated the outcomes, which led to minor changes in the population numbers for the affected countries. They are the following (with UN country code): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>32 Argentina, 44 Bahamas, 48 Bahrain, 64 Bhutan, 76 Brazil, 108 Burundi, 132 Cabo Verde, 156 China, 158 China, Taiwan Province of China, 170 Colombia, 214 Dominican Republic, 218 Ecuador, 226 Equatorial Guinea, 288 Ghana, 296 Kiribati, 360 Indonesia, 392 Japan, 400 Jordan, 410 Republic of Korea, 414 Kuwait, 496 Mongolia, 528 Netherlands, 558 Nicaragua, 583 Micronesia (Fed. States of), 591 Panama, 626 Timor-Leste, 630 Puerto Rico, 634 Qatar, 643 Russian Federation, 662 Saint Lucia, 702 Singapore, 764 Thailand, 784 United Arab Emirates, 788 Tunisia, 792 Turkey, 840 United States of America, 894 Zambia</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +462,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -788,12 +817,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1144,18 +1174,18 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="163.26953125" customWidth="1"/>
-    <col min="3" max="3" width="255.54296875" customWidth="1"/>
+    <col min="2" max="2" width="163.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1207,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1188,7 +1218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1199,7 +1229,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1221,7 +1251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1232,7 +1262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1276,7 +1306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +1339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1350,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1361,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1405,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1427,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +1438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1463,7 +1493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1485,7 +1515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1496,7 +1526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1507,10 +1537,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
     </row>
   </sheetData>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy Abel\Documents\Github\wcde-shiny\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\mig\Data Explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009596D-83F7-48EA-A853-E8B58D26A1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3F4879-6461-4CB7-AF50-60703D051300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1110" windowWidth="26790" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faq" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>category</t>
   </si>
@@ -37,167 +53,95 @@
     <t>What is &lt;strong&gt;WIC&lt;/strong&gt; and what does it do?</t>
   </si>
   <si>
+    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://univie.ac.at/'&gt;University of Vienna&lt;/a&gt;. The aim of the Wittgenstein Centre is to advance demographic methods and their application in analyzing human capital and population dynamics by leveraging the strengths of the three partner organizations in the fields of demography, human capital formation, and the analysis of returns to education.</t>
+  </si>
+  <si>
     <t>Is there a &lt;strong&gt;registration&lt;/strong&gt; required for downloading content from the web site?</t>
   </si>
   <si>
+    <t>No registration is required for accessing, selecting, and downloading data.</t>
+  </si>
+  <si>
+    <t>Which &lt;strong&gt;data&lt;/strong&gt; can be found in the WIC Data Explorer?</t>
+  </si>
+  <si>
+    <t>The WIC Data Explorer currently includes data on the following topics for 200 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
+  </si>
+  <si>
     <t>What are the &lt;strong&gt;data sources&lt;/strong&gt; for the WIC Data Explorer?</t>
   </si>
   <si>
+    <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2020, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in several publications:  &lt;a href='https://pure.iiasa.ac.at/19487'&gt;K.C. et al. (2024)&lt;/a&gt;,  &lt;a href='https://pure.iiasa.ac.at/19399'&gt;Yildiz and Abel (2024)&lt;/a&gt;, Dhakad and KC (2024 https://doi.org/10.1553/0x003f4a9d). The methodology and the rationale behind the assumptions underlying the scenarios are detailed in: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;. The general principles of the backprojections are explained in Speringer et al. (2021) https://epub.oeaw.ac.at/?arp=0x003cb434 and an updated version in KC et al. (2025 forthcoming)</t>
+  </si>
+  <si>
     <t>How &lt;strong&gt;reliable&lt;/strong&gt; is the provided data?</t>
   </si>
   <si>
+    <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2020). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>Who is the &lt;strong&gt;copyright&lt;/strong&gt; holder and what are the regulations for redissemination? How should I &lt;strong&gt;cite&lt;/strong&gt; data from the website?</t>
+  </si>
+  <si>
+    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 3.2 2023'</t>
+  </si>
+  <si>
+    <t>Can I put a &lt;strong&gt;link to the WIC Data Explorer&lt;/strong&gt; on my website?</t>
+  </si>
+  <si>
+    <t>Yes, webmasters can place links to the WIC Data Explorer without  special permission. Nevertheless, we would appreciate &lt;a href='mailto:data@wittgensteincentre.org'&gt;notification&lt;/a&gt; if you do so.</t>
+  </si>
+  <si>
+    <t>I am &lt;strong&gt;not fluent in English&lt;/strong&gt;. Is the WIC Data Explorer also provided in other languages?</t>
+  </si>
+  <si>
+    <t>No, unfortunately the WIC Data Explorer is currently only offered in English. However, you can use translation tools like &lt;a href='http://translate.google.com/'&gt;Google Translator&lt;/a&gt; to translate the website into your preferred language.</t>
+  </si>
+  <si>
+    <t>Which &lt;strong&gt;browsers&lt;/strong&gt; are recommended to use WIC Data Explorer?</t>
+  </si>
+  <si>
+    <t>To get the best user experience we recommend to use &lt;a href='https://www.google.com/chrome/'&gt;Google Chrome&lt;/a&gt; or &lt;a href='https://www.mozilla.org/en-US/firefox/new/'&gt;Mozilla Firefox&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>What is the &lt;strong&gt;reference time&lt;/strong&gt; for the WIC data?</t>
+  </si>
+  <si>
+    <t>The reference time for WIC data is 1st of January of the year in question.</t>
+  </si>
+  <si>
+    <t>I have a &lt;strong&gt;question&lt;/strong&gt; that is &lt;strong&gt;not in the FAQs&lt;/strong&gt;, whom should I contact?</t>
+  </si>
+  <si>
+    <t>If you have further questions or if you want to report a bug or request a feature, please send a message to &lt;a href='mailto:data@wittgensteincentre.org'&gt;data@wittgensteincentre.org&lt;/a&gt;.</t>
+  </si>
+  <si>
     <t>technical</t>
   </si>
   <si>
     <t>How do I &lt;strong&gt;select and deselect&lt;/strong&gt; data?</t>
   </si>
   <si>
-    <t>Why are &lt;strong&gt;small countries&lt;/strong&gt; like Liechtenstein not in the database?</t>
+    <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator; (2) Select the geography by choosing countries and/or regions; (3) Choose the preferred sex and age categories; (4) Choose the  scenarios and years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
+  </si>
+  <si>
+    <t>What &lt;strong&gt;countries and regions&lt;/strong&gt; are included in the WIC Data Explorer?</t>
+  </si>
+  <si>
+    <t>200 countries are included in the WIC Data Explorer. However, for 15 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find (good quality) education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
+  </si>
+  <si>
+    <t>For 15 countries it was not possible to obtain (good quality) data on educational attainment for the base year. Hence, approximations based on regional averages or similar countries were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
   </si>
   <si>
     <t>For which &lt;strong&gt;period&lt;/strong&gt; is data available in WIC Data Explorer?</t>
   </si>
   <si>
-    <t>Which &lt;strong&gt;age categories&lt;/strong&gt; are available?</t>
-  </si>
-  <si>
-    <t>Which &lt;strong&gt;education categories&lt;/strong&gt; are available?</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>Currently data is only provided in the CSV format (comma-separated values). Data in this format can be processed in Microsoft Excel or most other spreadsheet applications.</t>
-  </si>
-  <si>
-    <t>Can I &lt;strong&gt;download an entire dataset&lt;/strong&gt; or even the whole database at once?</t>
-  </si>
-  <si>
-    <t>What software do I need to &lt;strong&gt;display a CSV&lt;/strong&gt; file?</t>
-  </si>
-  <si>
-    <t>What software do I need to &lt;strong&gt;display a PDF&lt;/strong&gt; file?</t>
-  </si>
-  <si>
-    <t>No registration is required for accessing, selecting, and downloading data.</t>
-  </si>
-  <si>
-    <t>Which &lt;strong&gt;data&lt;/strong&gt; can be found in the WIC Data Explorer?</t>
-  </si>
-  <si>
-    <t>No, unfortunately the WIC Data Explorer is currently only offered in English. However, you can use translation tools like &lt;a href='http://translate.google.com/'&gt;Google Translator&lt;/a&gt; to translate the website into your preferred language.</t>
-  </si>
-  <si>
-    <t>To view a CSV file you need &lt;a href='http://office.microsoft.com/en-us/buy/'&gt;Microsoft Excel&lt;/a&gt;, &lt;a href='https://www.openoffice.org/download/index.html'&gt;Apache OpenOffice Calc&lt;/a&gt; (free), &lt;a href='http://www.libreoffice.org/download/libreoffice-fresh/'&gt;Libre Office Calc&lt;/a&gt; (free) or another spreadsheet application. If you open the file and the data does not appear in columns, your software does not recognize the comma as a separator. Try the following steps for a solution (Microsoft Excel): Select the first column &amp;rarr; Go to the data tab &amp;rarr; chose Text in Columns &amp;rarr; Follow the steps and select comma (,) as separator and quotation marks (") as a text qualifier. For more information available at Microsoft's support sites click &lt;a href='http://office.microsoft.com/en-us/excel-help/import-or-export-text-txt-or-csv-files-HP010099725.aspx'&gt;here&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Who is the &lt;strong&gt;copyright&lt;/strong&gt; holder and what are the regulations for redissemination? How should I &lt;strong&gt;cite&lt;/strong&gt; data from the website?</t>
-  </si>
-  <si>
-    <t>Can I put a &lt;strong&gt;link to the WIC Data Explorer&lt;/strong&gt; on my website?</t>
-  </si>
-  <si>
-    <t>I am &lt;strong&gt;not fluent in English&lt;/strong&gt;. Is the WIC Data Explorer also provided in other languages?</t>
-  </si>
-  <si>
-    <t>What &lt;strong&gt;countries and regions&lt;/strong&gt; are included in the WIC Data Explorer?</t>
-  </si>
-  <si>
-    <t>Which and how many &lt;strong&gt;scenarios&lt;/strong&gt; are included in the WIC Data Explorer?</t>
-  </si>
-  <si>
-    <t>Yes, webmasters can place links to the WIC Data Explorer without  special permission. Nevertheless, we would appreciate &lt;a href='mailto:data@wittgensteincentre.org'&gt;notification&lt;/a&gt; if you do so.</t>
-  </si>
-  <si>
-    <t>In what &lt;strong&gt;formats&lt;/strong&gt; is the data available for &lt;strong&gt;download&lt;/strong&gt;?</t>
-  </si>
-  <si>
-    <t>No, currently there is no function to download entire datasets or the entire database at once. You must make a selection first to get a download option. Nevertheless, if you require a large number of indicators and countries you can send us a &lt;a href='mailto:data@wittgensteincentre.org'&gt;message&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>To view a PDF file you will need a PDF viewer like Adobe Reader. To download Adobe Reader for free, click &lt;a href='http://get.adobe.com/de/reader/'&gt;here&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>If you have further questions or if you want to report a bug or request a feature, please send a message to &lt;a href='mailto:data@wittgensteincentre.org'&gt;data@wittgensteincentre.org&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>I have a &lt;strong&gt;question&lt;/strong&gt; that is &lt;strong&gt;not in the FAQs&lt;/strong&gt;, whom should I contact?</t>
-  </si>
-  <si>
-    <t>If you get this message, you have not selected a geography, a sex/age breakdown or a time horizon that is necessary for display. Please check your selection again.</t>
-  </si>
-  <si>
-    <t>What software do I need to &lt;strong&gt;display a PNG&lt;/strong&gt; file?</t>
-  </si>
-  <si>
-    <t>How do I &lt;strong&gt;download data&lt;/strong&gt;?</t>
-  </si>
-  <si>
-    <t>Why are there sometimes &lt;strong&gt;blank cells&lt;/strong&gt; for regions?</t>
-  </si>
-  <si>
-    <t>Blank cells occur when the indicator you selected is not available for a region, but only on the country level.</t>
-  </si>
-  <si>
-    <t>To view a PNG file you will need a viewer like IrfanView. To download IrfanView for free, click &lt;a href='http://www.irfanview.com/'&gt;here&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Which &lt;strong&gt;browsers&lt;/strong&gt; are recommended to use WIC Data Explorer?</t>
-  </si>
-  <si>
-    <t>To get the best user experience we recommend to use &lt;a href='https://www.google.com/chrome/'&gt;Google Chrome&lt;/a&gt; or &lt;a href='https://www.mozilla.org/en-US/firefox/new/'&gt;Mozilla Firefox&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator; (2) Select the geography by choosing countries and/or regions; (3) Choose the preferred sex and age categories; (4) Choose the  scenarios and years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why are &lt;strong&gt;Age-specific Fertility Rates by Education&lt;/strong&gt; and &lt;strong&gt;Total Fertility Rates by Education&lt;/strong&gt; in many cases equal for different education categories? </t>
-  </si>
-  <si>
-    <t>Due to methodological reasons, education categories are aggregated whenever their share in total population is below a certain threshold.</t>
-  </si>
-  <si>
-    <t>This is due to methodological constraints. As a result of different weights for different countries, regional aggregates of education-specific total fertility rates tend to show unsteady results.</t>
-  </si>
-  <si>
-    <t>In the bottom right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
-  </si>
-  <si>
-    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
-  </si>
-  <si>
-    <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
-  </si>
-  <si>
-    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
-  </si>
-  <si>
-    <t>The WIC Data Explorer currently includes data on the following topics for 200 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
-  </si>
-  <si>
-    <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2020). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t>What is the &lt;strong&gt;reference time&lt;/strong&gt; for the WIC data?</t>
-  </si>
-  <si>
-    <t>The reference time for WIC data is 1st of January of the year in question.</t>
-  </si>
-  <si>
-    <t>The reconstruction of population by levels of educational attainment from 1950 to 2020 will be made available in 2024.</t>
-  </si>
-  <si>
-    <t>Why is there no data for the period &lt;strong&gt;before 2020&lt;/strong&gt;?</t>
-  </si>
-  <si>
-    <t>Seven different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
-  </si>
-  <si>
     <r>
-      <t>Currently data are included from 2020 until 2100. The base year for the projections is 2020. Stock estimates (e.g. population size) refer to 1</t>
+      <t>Currently data are included from 1950 until 2100. The base year for the projections is 2020. Stock estimates (e.g. population size) refer to 1</t>
     </r>
     <r>
       <rPr>
@@ -264,38 +208,136 @@
     </r>
   </si>
   <si>
+    <t>Which &lt;strong&gt;age categories&lt;/strong&gt; are available?</t>
+  </si>
+  <si>
+    <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
+  </si>
+  <si>
+    <t>Which &lt;strong&gt;education categories&lt;/strong&gt; are available?</t>
+  </si>
+  <si>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://pure.iiasa.ac.at/19487'&gt;K.C. et al. (2024)&lt;/a&gt;,  &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019&lt;/a&gt;, or the Education Definitions tab.</t>
+  </si>
+  <si>
+    <t>Why are &lt;strong&gt;small countries&lt;/strong&gt; like Liechtenstein not in the database?</t>
+  </si>
+  <si>
+    <t>Due to methodological constraints, only countries with a population of more than 80,000 people in 2020 are currently considered in the database.</t>
+  </si>
+  <si>
+    <t>Why are there sometimes &lt;strong&gt;blank cells&lt;/strong&gt; for regions?</t>
+  </si>
+  <si>
+    <t>Blank cells occur when the indicator you selected is not available for a region, but only on the country level.</t>
+  </si>
+  <si>
+    <t>Which and how many &lt;strong&gt;scenarios&lt;/strong&gt; are included in the WIC Data Explorer?</t>
+  </si>
+  <si>
+    <t>Seven different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
+  </si>
+  <si>
+    <t>If you get this message, you have not selected a geography, a sex/age breakdown or a time horizon that is necessary for display. Please check your selection again.</t>
+  </si>
+  <si>
     <t>What is &lt;strong&gt;new compared to Version 2&lt;/strong&gt;?</t>
   </si>
   <si>
     <t>The Version 3 update is the most comprehensive since 2013, extending beyond updating the base year to 2020. Short-term assumptions (up to 2030) have been occasionally updated, while assumptions for 2050 and 2100 remain largely unchanged since they were based on comprehensive analyses and expert input. However, the trend component of the assumptions has been modified based on recent observations. Modeling methodology, fertility, migration, and education have also been modified. Education-specific fertility levels have been updated with new estimates, and education differentials in mortality are now country- and region-specific rather than being normalized to a single level by gender. Also, education-specific migration rates are implemented in the projection model for the first time.</t>
   </si>
   <si>
-    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://univie.ac.at/'&gt;University of Vienna&lt;/a&gt;. The aim of the Wittgenstein Centre is to advance demographic methods and their application in analyzing human capital and population dynamics by leveraging the strengths of the three partner organizations in the fields of demography, human capital formation, and the analysis of returns to education.</t>
-  </si>
-  <si>
-    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 3.0 2023'</t>
-  </si>
-  <si>
-    <t>200 countries are included in the WIC Data Explorer. However, for 15 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find (good quality) education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Due to methodological constraints, only countries with a population of more than 80,000 people in 2020 are currently considered in the database.</t>
-  </si>
-  <si>
-    <t>For 15 countries it was not possible to obtain (good quality) data on educational attainment for the base year. Hence, approximations based on regional averages or similar countries were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
-  </si>
-  <si>
-    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://pure.iiasa.ac.at/19487'&gt;K.C. et al. (2024)&lt;/a&gt;,  &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019&lt;/a&gt;, or the Education Definitions tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2020, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in several publications:  &lt;a href='https://pure.iiasa.ac.at/19487'&gt;K.C. et al. (2024)&lt;/a&gt;,  &lt;a href='https://pure.iiasa.ac.at/19399'&gt;Yildiz and Abel (2024)&lt;/a&gt;, Dhakad and KC (2024 forthcoming) and  Adhikari et al. (2024 forthcoming). The methodology and the rationale behind the assumptions underlying the scenarios are detailed in: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;. </t>
-  </si>
-  <si>
-    <t>What is different in version 3.1</t>
+    <t xml:space="preserve">Why are &lt;strong&gt;Age-specific Fertility Rates by Education&lt;/strong&gt; and &lt;strong&gt;Total Fertility Rates by Education&lt;/strong&gt; in many cases equal for different education categories? </t>
+  </si>
+  <si>
+    <t>Due to methodological reasons, education categories are aggregated whenever their share in total population is below a certain threshold.</t>
+  </si>
+  <si>
+    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
+  </si>
+  <si>
+    <t>This is due to methodological constraints. As a result of different weights for different countries, regional aggregates of education-specific total fertility rates tend to show unsteady results.</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>How do I &lt;strong&gt;download data&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>In the bottom right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
+  </si>
+  <si>
+    <t>In what &lt;strong&gt;formats&lt;/strong&gt; is the data available for &lt;strong&gt;download&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>Currently data is only provided in the CSV format (comma-separated values). Data in this format can be processed in Microsoft Excel or most other spreadsheet applications.</t>
+  </si>
+  <si>
+    <t>Can I &lt;strong&gt;download an entire dataset&lt;/strong&gt; or even the whole database at once?</t>
+  </si>
+  <si>
+    <t>No, currently there is no function to download entire datasets or the entire database at once. You must make a selection first to get a download option. Nevertheless, if you require a large number of indicators and countries you can send us a &lt;a href='mailto:kc@iiasa.ac.at'&gt;message&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>What software do I need to &lt;strong&gt;display a CSV&lt;/strong&gt; file?</t>
+  </si>
+  <si>
+    <t>To view a CSV file you need &lt;a href='http://office.microsoft.com/en-us/buy/'&gt;Microsoft Excel&lt;/a&gt;, &lt;a href='https://www.openoffice.org/download/index.html'&gt;Apache OpenOffice Calc&lt;/a&gt; (free), &lt;a href='http://www.libreoffice.org/download/libreoffice-fresh/'&gt;Libre Office Calc&lt;/a&gt; (free) or another spreadsheet application. If you open the file and the data does not appear in columns, your software does not recognize the comma as a separator. Try the following steps for a solution (Microsoft Excel): Select the first column &amp;rarr; Go to the data tab &amp;rarr; chose Text in Columns &amp;rarr; Follow the steps and select comma (,) as separator and quotation marks (") as a text qualifier. For more information available at Microsoft's support sites click &lt;a href='http://office.microsoft.com/en-us/excel-help/import-or-export-text-txt-or-csv-files-HP010099725.aspx'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>What software do I need to &lt;strong&gt;display a PDF&lt;/strong&gt; file?</t>
+  </si>
+  <si>
+    <t>To view a PDF file you will need a PDF viewer like Adobe Reader. To download Adobe Reader for free, click &lt;a href='http://get.adobe.com/de/reader/'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>What software do I need to &lt;strong&gt;display a PNG&lt;/strong&gt; file?</t>
+  </si>
+  <si>
+    <t>To view a PNG file you will need a viewer like IrfanView. To download IrfanView for free, click &lt;a href='http://www.irfanview.com/'&gt;here&lt;/a&gt;.</t>
   </si>
   <si>
     <r>
-      <t>Due to a coding error, we noticed that the education data for men and women had been reversed in the base year for 37 countries listed below. As a result, we reran the projections and validated the outcomes, which led to minor changes in the population numbers for the affected countries. They are the following (with UN country code): </t>
+      <t xml:space="preserve">Why is the &lt;strong&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>reconstructed data &lt;strong&gt; different from Version 1.2 and Version 2?</t>
+    </r>
+  </si>
+  <si>
+    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see KC et al. (forthcoming).</t>
+  </si>
+  <si>
+    <t>Why is data referenced to UN Population Division, World Population Prospects 2022 slightly different from what I find in UN World Population Prospects 2022 download files?</t>
+  </si>
+  <si>
+    <t>UN Population Division, World Population Prospects 2022 data was obtained through the R package 'wpp2022' which displays slightly different values than the download files.</t>
+  </si>
+  <si>
+    <t>Why is there a break in time series between 2015 and 2020 for many regions and indicators?</t>
+  </si>
+  <si>
+    <t>While the reconstruction of population by levels of educational attainment from 1950 to 2020 covers 185 countries, population projections include 200 countries. Hence, proxy data for the missing countries have to be used to calculate regional aggregates, resulting in minor breaks in time series.</t>
+  </si>
+  <si>
+    <t>Why is there a break in time series between 2015 and 2020 for &lt;strong&gt; Mean Years of Schooling &lt;strong&gt; for some countries?</t>
+  </si>
+  <si>
+    <t>Due to methodological reasons slightly different calculations are used for the historical reconstruction (based on 6 education categories) and the projections (based on 8 education categories) of this indicator.</t>
+  </si>
+  <si>
+    <r>
+      <t>Due to a coding error, we noticed that the education data for men and women had been reversed in the base year for 37 countries listed below. As a result, we reran the projections and validated the outcomes in &lt;strong&gt;Version 3.1 &lt;strong&gt;, which led to minor changes in the population numbers for the affected countries. They are the following (with UN country code): </t>
     </r>
     <r>
       <rPr>
@@ -304,15 +346,18 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t>32 Argentina, 44 Bahamas, 48 Bahrain, 64 Bhutan, 76 Brazil, 108 Burundi, 132 Cabo Verde, 156 China, 158 China, Taiwan Province of China, 170 Colombia, 214 Dominican Republic, 218 Ecuador, 226 Equatorial Guinea, 288 Ghana, 296 Kiribati, 360 Indonesia, 392 Japan, 400 Jordan, 410 Republic of Korea, 414 Kuwait, 496 Mongolia, 528 Netherlands, 558 Nicaragua, 583 Micronesia (Fed. States of), 591 Panama, 626 Timor-Leste, 630 Puerto Rico, 634 Qatar, 643 Russian Federation, 662 Saint Lucia, 702 Singapore, 764 Thailand, 784 United Arab Emirates, 788 Tunisia, 792 Turkey, 840 United States of America, 894 Zambia</t>
+      <t>32 Argentina, 44 Bahamas, 48 Bahrain, 64 Bhutan, 76 Brazil, 108 Burundi, 132 Cabo Verde, 156 China, 158 China, Taiwan Province of China, 170 Colombia, 214 Dominican Republic, 218 Ecuador, 226 Equatorial Guinea, 288 Ghana, 296 Kiribati, 360 Indonesia, 392 Japan, 400 Jordan, 410 Republic of Korea, 414 Kuwait, 496 Mongolia, 528 Netherlands, 558 Nicaragua, 583 Micronesia (Fed. States of), 591 Panama, 626 Timor-Leste, 630 Puerto Rico, 634 Qatar, 643 Russian Federation, 662 Saint Lucia, 702 Singapore, 764 Thailand, 784 United Arab Emirates, 788 Tunisia, 792 Turkey, 840 United States of America, 894 Zambia. &lt;strong&gt; Version 3.2 &lt;strong&gt; includes data for the 1950-2015 period which was not available in previous versions.</t>
     </r>
+  </si>
+  <si>
+    <t>What is different in &lt;strong&gt; versions 3.1and 3.2&lt;strong&gt; ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +518,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -817,13 +868,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1172,16 +1235,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="163.28515625" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" customWidth="1"/>
     <col min="3" max="3" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1204,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,10 +1275,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,21 +1286,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,21 +1308,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,10 +1330,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,10 +1341,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,10 +1352,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,10 +1363,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1311,248 +1374,275 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
       <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
